--- a/Case&Result/case.xlsx
+++ b/Case&Result/case.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>573ae98d7f10087a048b4a61</t>
+    <t>5a2a251ced840f14658b4683</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Case&Result/case.xlsx
+++ b/Case&Result/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>5a2a251ced840f14658b4683</t>
+    <t>573ae98d7f10087a048b4a61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5913ced27f1008ef4a8b456c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -366,7 +372,9 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
